--- a/summary.xlsx
+++ b/summary.xlsx
@@ -13,6 +13,7 @@
     <sheet name="茄类" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="辣椒类" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="食用菌" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="品类统计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -73664,4 +73665,3933 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D217"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>分类编码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>分类名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>销量(千克)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6577.078</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7261.517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5668.902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6395.312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6518.569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6901.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6412.193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5741.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5060.645</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4915.061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5465.001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4632.309</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5568.509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7113.029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4861.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4061.861</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1891.076</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2958.955</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3880.812</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3474.049</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3359.617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3491.077</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3412.47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4001.051</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5226.721</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10131.385</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>8193.393</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8755.013000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6522.257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6657.329</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7561.463</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5347.792</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5476.18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5140.509</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5225.556</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1011010101</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>花叶类</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4660.197</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1522.555</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1748.658</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1336.066</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1644.963</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1943.391</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1235.596</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1262.447</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1500.92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1166.262</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1380.398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1108.386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1224.572</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1446.983</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>722.804</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>775.4350000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>738.463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>599.033</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>762.501</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1358.424</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>903.602</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>511.929</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>436.828</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>770.6799999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>737.248</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1499.358</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2454.973</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1476.89</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1521.896</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1339.073</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1147.225</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1482.443</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1032.512</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>899.3819999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>715.518</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>825.848</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1011010201</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>花菜类</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>533.189</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>332.056</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>867.1799999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>798.931</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1344.118</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>960.6950000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1896.154</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1922.91</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1961.572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>904.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>524.278</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>308.686</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>328.498</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>543.799</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1115.909</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1402.392</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1484.274</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1273.503</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1332.336</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2031.8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>955.9829999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>834.179</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>329.475</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>157.828</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>358.965</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1864.482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2524.01</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1568.368</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2106.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1352.753</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1670.01</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2135.529</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1143.18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>776.093</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>539.653</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>420.267</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1011010402</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>水生根茎类</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>510.787</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1365.551</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1139.393</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>671.692</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>771.967</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>432.389</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>408.995</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>501.591</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>877.194</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>615.974</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>619.437</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>723.611</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>821.1370000000001</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>967.582</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>968.499</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>740.5600000000001</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>470.765</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>250.963</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>238.36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>637.0549999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>606.559</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>500.686</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>617.922</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>993.728</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>977.343</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>567.788</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>628.297</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>105.318</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>157.899</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>252.964</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>213.106</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>660.05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>366.492</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>440.094</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>591.3390000000001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>760.167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1011010501</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>茄类</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>769.3149999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2198.049</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2822.344</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1992.413</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1908.944</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1837.705</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1427.439</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1919.11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3824.593</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2574.561</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1957.177</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2295.673</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1934.17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1603.458</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>2041.186</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1493.525</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1604.602</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>803.319</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1186.443</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>3097.329</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2250.052</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2378.321</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2193.028</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1537.388</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1291.126</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>2335.322</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>5023.004</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>3267.866</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>4419.993</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3518.907</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3367.514</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>5182.983</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3608.985</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>3953.09</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>3240.117</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2783.96</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1011010504</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>辣椒类</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2714.933</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1617.836</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1636.524</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1642.881</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>3000.532</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3281.028</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>3475.546</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>3043.698</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3691.863</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2246.831</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1379.944</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1164.387</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1121.852</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1103.387</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1579.64</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1373.037</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1507.855</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1639.757</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2068.748</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2248.435</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1291.039</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>784.754</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>822.434</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>762.225</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1069.716</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1792.005</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2080.588</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>2041.807</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>4030.387</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>3236.025</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>3186.522</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>4532.329</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2607.748</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>2696.437</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>2481.835</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>2128.108</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1011010801</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>食用菌</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1718.985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>